--- a/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,70 +41,295 @@
     <t>Role</t>
   </si>
   <si>
-    <t>zKVVI104</t>
-  </si>
-  <si>
-    <t>stnntir14</t>
-  </si>
-  <si>
-    <t>f5%2G#Yv</t>
+    <t>iJzhr638</t>
+  </si>
+  <si>
+    <t>gfrjcgt29</t>
+  </si>
+  <si>
+    <t>w7%X9xM&amp;</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>vYERfVhF</t>
-  </si>
-  <si>
-    <t>nhQh</t>
+    <t>dGzvMexx</t>
+  </si>
+  <si>
+    <t>aoee</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>khwtP681</t>
-  </si>
-  <si>
-    <t>vbmjoeu93</t>
-  </si>
-  <si>
-    <t>CnN!u7#9</t>
-  </si>
-  <si>
-    <t>xcVgwazN</t>
-  </si>
-  <si>
-    <t>MjdI</t>
-  </si>
-  <si>
-    <t>jOtTv227</t>
-  </si>
-  <si>
-    <t>uiyrpvp92</t>
-  </si>
-  <si>
-    <t>Ngp#H37&amp;</t>
-  </si>
-  <si>
-    <t>BfkfFQeD</t>
-  </si>
-  <si>
-    <t>UHwt</t>
-  </si>
-  <si>
-    <t>XgvpS868</t>
-  </si>
-  <si>
-    <t>hjfhgce81</t>
-  </si>
-  <si>
-    <t>J8!&amp;rK2e</t>
-  </si>
-  <si>
-    <t>SVFShPPB</t>
-  </si>
-  <si>
-    <t>fQqd</t>
+    <t>NFayd187</t>
+  </si>
+  <si>
+    <t>xumrqmr57</t>
+  </si>
+  <si>
+    <t>V5eKm%9#</t>
+  </si>
+  <si>
+    <t>wgmuoZHQ</t>
+  </si>
+  <si>
+    <t>hnFz</t>
+  </si>
+  <si>
+    <t>RZSon713</t>
+  </si>
+  <si>
+    <t>wnbsrul40</t>
+  </si>
+  <si>
+    <t>qhN9W$6#</t>
+  </si>
+  <si>
+    <t>lrdsxAdl</t>
+  </si>
+  <si>
+    <t>TaUs</t>
+  </si>
+  <si>
+    <t>kxEJl307</t>
+  </si>
+  <si>
+    <t>bzlbxhu81</t>
+  </si>
+  <si>
+    <t>z%5$sQ8N</t>
+  </si>
+  <si>
+    <t>jUxYtDzi</t>
+  </si>
+  <si>
+    <t>EwAc</t>
+  </si>
+  <si>
+    <t>kCjqT743</t>
+  </si>
+  <si>
+    <t>qfjjpbo39</t>
+  </si>
+  <si>
+    <t>wdC4$%B9</t>
+  </si>
+  <si>
+    <t>CHbzQOFt</t>
+  </si>
+  <si>
+    <t>nGPl</t>
+  </si>
+  <si>
+    <t>HwEKB346</t>
+  </si>
+  <si>
+    <t>cloglot20</t>
+  </si>
+  <si>
+    <t>g#F3t&amp;5V</t>
+  </si>
+  <si>
+    <t>SaeFRtvC</t>
+  </si>
+  <si>
+    <t>nsXZ</t>
+  </si>
+  <si>
+    <t>fiWXU608</t>
+  </si>
+  <si>
+    <t>jymeowz84</t>
+  </si>
+  <si>
+    <t>e4#B8H!s</t>
+  </si>
+  <si>
+    <t>uZBVCivW</t>
+  </si>
+  <si>
+    <t>iOCy</t>
+  </si>
+  <si>
+    <t>DGAXd444</t>
+  </si>
+  <si>
+    <t>sbwdfeb88</t>
+  </si>
+  <si>
+    <t>aNh#3C5&amp;</t>
+  </si>
+  <si>
+    <t>ElLepgyJ</t>
+  </si>
+  <si>
+    <t>imIM</t>
+  </si>
+  <si>
+    <t>ygxox290</t>
+  </si>
+  <si>
+    <t>npoeekp15</t>
+  </si>
+  <si>
+    <t>S35t&amp;d%C</t>
+  </si>
+  <si>
+    <t>hynzohDN</t>
+  </si>
+  <si>
+    <t>vPvW</t>
+  </si>
+  <si>
+    <t>VABUF496</t>
+  </si>
+  <si>
+    <t>hupdfcg27</t>
+  </si>
+  <si>
+    <t>j28N#Q%b</t>
+  </si>
+  <si>
+    <t>sefCASQA</t>
+  </si>
+  <si>
+    <t>dmsa</t>
+  </si>
+  <si>
+    <t>XsjKk625</t>
+  </si>
+  <si>
+    <t>nhiompr41</t>
+  </si>
+  <si>
+    <t>q83n&amp;C!T</t>
+  </si>
+  <si>
+    <t>qYxejNzw</t>
+  </si>
+  <si>
+    <t>mzKB</t>
+  </si>
+  <si>
+    <t>BhXQr846</t>
+  </si>
+  <si>
+    <t>szgkydl49</t>
+  </si>
+  <si>
+    <t>qzN$6J8#</t>
+  </si>
+  <si>
+    <t>fVlBHdrf</t>
+  </si>
+  <si>
+    <t>yYuu</t>
+  </si>
+  <si>
+    <t>vMdAR465</t>
+  </si>
+  <si>
+    <t>jtloixj24</t>
+  </si>
+  <si>
+    <t>b&amp;AC68#u</t>
+  </si>
+  <si>
+    <t>bICAeYTW</t>
+  </si>
+  <si>
+    <t>yxrc</t>
+  </si>
+  <si>
+    <t>qbLyE950</t>
+  </si>
+  <si>
+    <t>huzplyo51</t>
+  </si>
+  <si>
+    <t>r7$Vn9B!</t>
+  </si>
+  <si>
+    <t>XcORCQLv</t>
+  </si>
+  <si>
+    <t>NNJH</t>
+  </si>
+  <si>
+    <t>RkpRA173</t>
+  </si>
+  <si>
+    <t>dehacjw18</t>
+  </si>
+  <si>
+    <t>v7!5D%cA</t>
+  </si>
+  <si>
+    <t>EciwtxuW</t>
+  </si>
+  <si>
+    <t>XrCk</t>
+  </si>
+  <si>
+    <t>Zxvpp131</t>
+  </si>
+  <si>
+    <t>pcfsuuw91</t>
+  </si>
+  <si>
+    <t>n#Qb!38H</t>
+  </si>
+  <si>
+    <t>YRomazXh</t>
+  </si>
+  <si>
+    <t>MeHS</t>
+  </si>
+  <si>
+    <t>wicVe133</t>
+  </si>
+  <si>
+    <t>gcqqcig68</t>
+  </si>
+  <si>
+    <t>x$94C!hT</t>
+  </si>
+  <si>
+    <t>qbjZHHQS</t>
+  </si>
+  <si>
+    <t>MPKc</t>
+  </si>
+  <si>
+    <t>hhKzM892</t>
+  </si>
+  <si>
+    <t>umkdkfg50</t>
+  </si>
+  <si>
+    <t>AG68%be#</t>
+  </si>
+  <si>
+    <t>bkDmftSM</t>
+  </si>
+  <si>
+    <t>bcBK</t>
+  </si>
+  <si>
+    <t>gLdzs970</t>
+  </si>
+  <si>
+    <t>qkwdlyj42</t>
+  </si>
+  <si>
+    <t>m8PHv2%!</t>
+  </si>
+  <si>
+    <t>smGQwRQf</t>
+  </si>
+  <si>
+    <t>jCZp</t>
   </si>
 </sst>
 </file>
@@ -472,10 +697,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004197</v>
+        <v>231006265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -537,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004196</v>
+        <v>231006264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -563,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004195</v>
+        <v>231006263</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -589,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004194</v>
+        <v>231006262</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -607,6 +832,396 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231006261</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231006260</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231006259</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231006258</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231006257</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231006256</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231006255</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231006254</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231006253</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231006252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231006251</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231006250</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231006249</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231006248</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231006247</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,70 +41,325 @@
     <t>Role</t>
   </si>
   <si>
-    <t>zKVVI104</t>
-  </si>
-  <si>
-    <t>stnntir14</t>
-  </si>
-  <si>
-    <t>f5%2G#Yv</t>
+    <t>ztaFS302</t>
+  </si>
+  <si>
+    <t>ccaoujg91</t>
+  </si>
+  <si>
+    <t>c7%W4$Dq</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>vYERfVhF</t>
-  </si>
-  <si>
-    <t>nhQh</t>
+    <t>XVuPoXQo</t>
+  </si>
+  <si>
+    <t>dDNK</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>khwtP681</t>
-  </si>
-  <si>
-    <t>vbmjoeu93</t>
-  </si>
-  <si>
-    <t>CnN!u7#9</t>
-  </si>
-  <si>
-    <t>xcVgwazN</t>
-  </si>
-  <si>
-    <t>MjdI</t>
-  </si>
-  <si>
-    <t>jOtTv227</t>
-  </si>
-  <si>
-    <t>uiyrpvp92</t>
-  </si>
-  <si>
-    <t>Ngp#H37&amp;</t>
-  </si>
-  <si>
-    <t>BfkfFQeD</t>
-  </si>
-  <si>
-    <t>UHwt</t>
-  </si>
-  <si>
-    <t>XgvpS868</t>
-  </si>
-  <si>
-    <t>hjfhgce81</t>
-  </si>
-  <si>
-    <t>J8!&amp;rK2e</t>
-  </si>
-  <si>
-    <t>SVFShPPB</t>
-  </si>
-  <si>
-    <t>fQqd</t>
+    <t>SmwEm886</t>
+  </si>
+  <si>
+    <t>alndgni22</t>
+  </si>
+  <si>
+    <t>TdkD2#!7</t>
+  </si>
+  <si>
+    <t>jXownYNc</t>
+  </si>
+  <si>
+    <t>QPpe</t>
+  </si>
+  <si>
+    <t>vlAmJ283</t>
+  </si>
+  <si>
+    <t>matabuo43</t>
+  </si>
+  <si>
+    <t>JsMv3$9!</t>
+  </si>
+  <si>
+    <t>VbQQIBua</t>
+  </si>
+  <si>
+    <t>mmtx</t>
+  </si>
+  <si>
+    <t>QKCFK373</t>
+  </si>
+  <si>
+    <t>lerzxvy33</t>
+  </si>
+  <si>
+    <t>k#W85v$G</t>
+  </si>
+  <si>
+    <t>ktaCnGIu</t>
+  </si>
+  <si>
+    <t>aKYw</t>
+  </si>
+  <si>
+    <t>gOEiB751</t>
+  </si>
+  <si>
+    <t>zplpazc31</t>
+  </si>
+  <si>
+    <t>v#!VJ26f</t>
+  </si>
+  <si>
+    <t>sHJeCIcJ</t>
+  </si>
+  <si>
+    <t>CxTe</t>
+  </si>
+  <si>
+    <t>ifQwg588</t>
+  </si>
+  <si>
+    <t>cvlknvp96</t>
+  </si>
+  <si>
+    <t>v&amp;E2k#Y6</t>
+  </si>
+  <si>
+    <t>PNXlAOUD</t>
+  </si>
+  <si>
+    <t>dXLG</t>
+  </si>
+  <si>
+    <t>mhTNW268</t>
+  </si>
+  <si>
+    <t>pdramtw16</t>
+  </si>
+  <si>
+    <t>P37a%k!H</t>
+  </si>
+  <si>
+    <t>cypVTJaP</t>
+  </si>
+  <si>
+    <t>zgxP</t>
+  </si>
+  <si>
+    <t>eYCxO518</t>
+  </si>
+  <si>
+    <t>hzeocrk31</t>
+  </si>
+  <si>
+    <t>bcE!V9#3</t>
+  </si>
+  <si>
+    <t>ENjEDEzs</t>
+  </si>
+  <si>
+    <t>yVcU</t>
+  </si>
+  <si>
+    <t>CRTwk753</t>
+  </si>
+  <si>
+    <t>eattqlq28</t>
+  </si>
+  <si>
+    <t>C$h&amp;F68p</t>
+  </si>
+  <si>
+    <t>QVzUUkqt</t>
+  </si>
+  <si>
+    <t>VsEe</t>
+  </si>
+  <si>
+    <t>LsiQj110</t>
+  </si>
+  <si>
+    <t>dpogpqp40</t>
+  </si>
+  <si>
+    <t>S$wmC5#6</t>
+  </si>
+  <si>
+    <t>tsMdAhXL</t>
+  </si>
+  <si>
+    <t>mZQz</t>
+  </si>
+  <si>
+    <t>ANntu322</t>
+  </si>
+  <si>
+    <t>jddqypf35</t>
+  </si>
+  <si>
+    <t>yQ7h#B%9</t>
+  </si>
+  <si>
+    <t>YeOsodxZ</t>
+  </si>
+  <si>
+    <t>iTrH</t>
+  </si>
+  <si>
+    <t>pvmXn381</t>
+  </si>
+  <si>
+    <t>egvdsqh13</t>
+  </si>
+  <si>
+    <t>he$Y5!V8</t>
+  </si>
+  <si>
+    <t>WRGOLqQN</t>
+  </si>
+  <si>
+    <t>GCOt</t>
+  </si>
+  <si>
+    <t>eIeER860</t>
+  </si>
+  <si>
+    <t>iwmquhr26</t>
+  </si>
+  <si>
+    <t>B%b#K67n</t>
+  </si>
+  <si>
+    <t>FZcZDfLN</t>
+  </si>
+  <si>
+    <t>JhcV</t>
+  </si>
+  <si>
+    <t>yVupu435</t>
+  </si>
+  <si>
+    <t>lwtgnjr42</t>
+  </si>
+  <si>
+    <t>v3s!F&amp;6R</t>
+  </si>
+  <si>
+    <t>CXKNbEZu</t>
+  </si>
+  <si>
+    <t>sCGW</t>
+  </si>
+  <si>
+    <t>WtyGc734</t>
+  </si>
+  <si>
+    <t>vuqyoin38</t>
+  </si>
+  <si>
+    <t>c%uFR59!</t>
+  </si>
+  <si>
+    <t>ltDbyDMh</t>
+  </si>
+  <si>
+    <t>ighk</t>
+  </si>
+  <si>
+    <t>wPnhy556</t>
+  </si>
+  <si>
+    <t>xvfzqhe61</t>
+  </si>
+  <si>
+    <t>Ks#jF6%5</t>
+  </si>
+  <si>
+    <t>ipoweWAo</t>
+  </si>
+  <si>
+    <t>yxXM</t>
+  </si>
+  <si>
+    <t>AYmsG496</t>
+  </si>
+  <si>
+    <t>xvqycng78</t>
+  </si>
+  <si>
+    <t>a&amp;W3#5dQ</t>
+  </si>
+  <si>
+    <t>AJkaPXzO</t>
+  </si>
+  <si>
+    <t>orXE</t>
+  </si>
+  <si>
+    <t>FIauF535</t>
+  </si>
+  <si>
+    <t>hnbplfi46</t>
+  </si>
+  <si>
+    <t>A74$vaR!</t>
+  </si>
+  <si>
+    <t>kvfYsOHz</t>
+  </si>
+  <si>
+    <t>HNsO</t>
+  </si>
+  <si>
+    <t>fEMud561</t>
+  </si>
+  <si>
+    <t>scwhyuz59</t>
+  </si>
+  <si>
+    <t>f&amp;q36B!V</t>
+  </si>
+  <si>
+    <t>uGQrYlrA</t>
+  </si>
+  <si>
+    <t>ZHwQ</t>
+  </si>
+  <si>
+    <t>Txfqh964</t>
+  </si>
+  <si>
+    <t>kwtxoqt87</t>
+  </si>
+  <si>
+    <t>a$6e4ZM#</t>
+  </si>
+  <si>
+    <t>UbcOSRcf</t>
+  </si>
+  <si>
+    <t>imsZ</t>
+  </si>
+  <si>
+    <t>HjuXy202</t>
+  </si>
+  <si>
+    <t>kbnbrnz70</t>
+  </si>
+  <si>
+    <t>w7&amp;S%3kR</t>
+  </si>
+  <si>
+    <t>pNdwkGLk</t>
+  </si>
+  <si>
+    <t>ZoHd</t>
   </si>
 </sst>
 </file>
@@ -472,10 +727,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004197</v>
+        <v>231011250</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -537,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004196</v>
+        <v>231011249</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -563,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004195</v>
+        <v>231011248</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -589,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004194</v>
+        <v>231011247</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -607,6 +862,448 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231011246</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231011245</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231011244</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231011243</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231011242</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231011241</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231011240</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231011239</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231011238</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231011237</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231011236</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231011235</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231011234</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231011233</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231011232</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231011231</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231011230</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,325 +41,310 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ztaFS302</t>
-  </si>
-  <si>
-    <t>ccaoujg91</t>
-  </si>
-  <si>
-    <t>c7%W4$Dq</t>
+    <t>gJHFX159</t>
+  </si>
+  <si>
+    <t>ypjqkgb89</t>
+  </si>
+  <si>
+    <t>T6M7$y!c</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>XVuPoXQo</t>
-  </si>
-  <si>
-    <t>dDNK</t>
+    <t>ykBdltJx</t>
+  </si>
+  <si>
+    <t>YBQv</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>SmwEm886</t>
-  </si>
-  <si>
-    <t>alndgni22</t>
-  </si>
-  <si>
-    <t>TdkD2#!7</t>
-  </si>
-  <si>
-    <t>jXownYNc</t>
-  </si>
-  <si>
-    <t>QPpe</t>
-  </si>
-  <si>
-    <t>vlAmJ283</t>
-  </si>
-  <si>
-    <t>matabuo43</t>
-  </si>
-  <si>
-    <t>JsMv3$9!</t>
-  </si>
-  <si>
-    <t>VbQQIBua</t>
-  </si>
-  <si>
-    <t>mmtx</t>
-  </si>
-  <si>
-    <t>QKCFK373</t>
-  </si>
-  <si>
-    <t>lerzxvy33</t>
-  </si>
-  <si>
-    <t>k#W85v$G</t>
-  </si>
-  <si>
-    <t>ktaCnGIu</t>
-  </si>
-  <si>
-    <t>aKYw</t>
-  </si>
-  <si>
-    <t>gOEiB751</t>
-  </si>
-  <si>
-    <t>zplpazc31</t>
-  </si>
-  <si>
-    <t>v#!VJ26f</t>
-  </si>
-  <si>
-    <t>sHJeCIcJ</t>
-  </si>
-  <si>
-    <t>CxTe</t>
-  </si>
-  <si>
-    <t>ifQwg588</t>
-  </si>
-  <si>
-    <t>cvlknvp96</t>
-  </si>
-  <si>
-    <t>v&amp;E2k#Y6</t>
-  </si>
-  <si>
-    <t>PNXlAOUD</t>
-  </si>
-  <si>
-    <t>dXLG</t>
-  </si>
-  <si>
-    <t>mhTNW268</t>
-  </si>
-  <si>
-    <t>pdramtw16</t>
-  </si>
-  <si>
-    <t>P37a%k!H</t>
-  </si>
-  <si>
-    <t>cypVTJaP</t>
-  </si>
-  <si>
-    <t>zgxP</t>
-  </si>
-  <si>
-    <t>eYCxO518</t>
-  </si>
-  <si>
-    <t>hzeocrk31</t>
-  </si>
-  <si>
-    <t>bcE!V9#3</t>
-  </si>
-  <si>
-    <t>ENjEDEzs</t>
-  </si>
-  <si>
-    <t>yVcU</t>
-  </si>
-  <si>
-    <t>CRTwk753</t>
-  </si>
-  <si>
-    <t>eattqlq28</t>
-  </si>
-  <si>
-    <t>C$h&amp;F68p</t>
-  </si>
-  <si>
-    <t>QVzUUkqt</t>
-  </si>
-  <si>
-    <t>VsEe</t>
-  </si>
-  <si>
-    <t>LsiQj110</t>
-  </si>
-  <si>
-    <t>dpogpqp40</t>
-  </si>
-  <si>
-    <t>S$wmC5#6</t>
-  </si>
-  <si>
-    <t>tsMdAhXL</t>
-  </si>
-  <si>
-    <t>mZQz</t>
-  </si>
-  <si>
-    <t>ANntu322</t>
-  </si>
-  <si>
-    <t>jddqypf35</t>
-  </si>
-  <si>
-    <t>yQ7h#B%9</t>
-  </si>
-  <si>
-    <t>YeOsodxZ</t>
-  </si>
-  <si>
-    <t>iTrH</t>
-  </si>
-  <si>
-    <t>pvmXn381</t>
-  </si>
-  <si>
-    <t>egvdsqh13</t>
-  </si>
-  <si>
-    <t>he$Y5!V8</t>
-  </si>
-  <si>
-    <t>WRGOLqQN</t>
-  </si>
-  <si>
-    <t>GCOt</t>
-  </si>
-  <si>
-    <t>eIeER860</t>
-  </si>
-  <si>
-    <t>iwmquhr26</t>
-  </si>
-  <si>
-    <t>B%b#K67n</t>
-  </si>
-  <si>
-    <t>FZcZDfLN</t>
-  </si>
-  <si>
-    <t>JhcV</t>
-  </si>
-  <si>
-    <t>yVupu435</t>
-  </si>
-  <si>
-    <t>lwtgnjr42</t>
-  </si>
-  <si>
-    <t>v3s!F&amp;6R</t>
-  </si>
-  <si>
-    <t>CXKNbEZu</t>
-  </si>
-  <si>
-    <t>sCGW</t>
-  </si>
-  <si>
-    <t>WtyGc734</t>
-  </si>
-  <si>
-    <t>vuqyoin38</t>
-  </si>
-  <si>
-    <t>c%uFR59!</t>
-  </si>
-  <si>
-    <t>ltDbyDMh</t>
-  </si>
-  <si>
-    <t>ighk</t>
-  </si>
-  <si>
-    <t>wPnhy556</t>
-  </si>
-  <si>
-    <t>xvfzqhe61</t>
-  </si>
-  <si>
-    <t>Ks#jF6%5</t>
-  </si>
-  <si>
-    <t>ipoweWAo</t>
-  </si>
-  <si>
-    <t>yxXM</t>
-  </si>
-  <si>
-    <t>AYmsG496</t>
-  </si>
-  <si>
-    <t>xvqycng78</t>
-  </si>
-  <si>
-    <t>a&amp;W3#5dQ</t>
-  </si>
-  <si>
-    <t>AJkaPXzO</t>
-  </si>
-  <si>
-    <t>orXE</t>
-  </si>
-  <si>
-    <t>FIauF535</t>
-  </si>
-  <si>
-    <t>hnbplfi46</t>
-  </si>
-  <si>
-    <t>A74$vaR!</t>
-  </si>
-  <si>
-    <t>kvfYsOHz</t>
-  </si>
-  <si>
-    <t>HNsO</t>
-  </si>
-  <si>
-    <t>fEMud561</t>
-  </si>
-  <si>
-    <t>scwhyuz59</t>
-  </si>
-  <si>
-    <t>f&amp;q36B!V</t>
-  </si>
-  <si>
-    <t>uGQrYlrA</t>
-  </si>
-  <si>
-    <t>ZHwQ</t>
-  </si>
-  <si>
-    <t>Txfqh964</t>
-  </si>
-  <si>
-    <t>kwtxoqt87</t>
-  </si>
-  <si>
-    <t>a$6e4ZM#</t>
-  </si>
-  <si>
-    <t>UbcOSRcf</t>
-  </si>
-  <si>
-    <t>imsZ</t>
-  </si>
-  <si>
-    <t>HjuXy202</t>
-  </si>
-  <si>
-    <t>kbnbrnz70</t>
-  </si>
-  <si>
-    <t>w7&amp;S%3kR</t>
-  </si>
-  <si>
-    <t>pNdwkGLk</t>
-  </si>
-  <si>
-    <t>ZoHd</t>
+    <t>wtrGx665</t>
+  </si>
+  <si>
+    <t>dinaezs55</t>
+  </si>
+  <si>
+    <t>fFUe$#89</t>
+  </si>
+  <si>
+    <t>PQsmvSTF</t>
+  </si>
+  <si>
+    <t>btye</t>
+  </si>
+  <si>
+    <t>MUBPT629</t>
+  </si>
+  <si>
+    <t>rdvldhz81</t>
+  </si>
+  <si>
+    <t>x7P%!8Fn</t>
+  </si>
+  <si>
+    <t>KpCIMhAX</t>
+  </si>
+  <si>
+    <t>FLuF</t>
+  </si>
+  <si>
+    <t>fkgQc243</t>
+  </si>
+  <si>
+    <t>cwaiylq38</t>
+  </si>
+  <si>
+    <t>ws9$7X!V</t>
+  </si>
+  <si>
+    <t>BOiZSmWj</t>
+  </si>
+  <si>
+    <t>JSAY</t>
+  </si>
+  <si>
+    <t>pUKZs281</t>
+  </si>
+  <si>
+    <t>tzafsvc74</t>
+  </si>
+  <si>
+    <t>tJ79#%An</t>
+  </si>
+  <si>
+    <t>JlxUMfkf</t>
+  </si>
+  <si>
+    <t>dyef</t>
+  </si>
+  <si>
+    <t>EHkpe663</t>
+  </si>
+  <si>
+    <t>mmozbwf53</t>
+  </si>
+  <si>
+    <t>N67mM!#p</t>
+  </si>
+  <si>
+    <t>PfBENuMU</t>
+  </si>
+  <si>
+    <t>RsOW</t>
+  </si>
+  <si>
+    <t>bjzYz341</t>
+  </si>
+  <si>
+    <t>kuiplhu62</t>
+  </si>
+  <si>
+    <t>rD4#H!d7</t>
+  </si>
+  <si>
+    <t>SyNmYQQE</t>
+  </si>
+  <si>
+    <t>wXKC</t>
+  </si>
+  <si>
+    <t>dltEs127</t>
+  </si>
+  <si>
+    <t>dojimlc52</t>
+  </si>
+  <si>
+    <t>f2c8&amp;$GX</t>
+  </si>
+  <si>
+    <t>ynrSLMtI</t>
+  </si>
+  <si>
+    <t>CjMm</t>
+  </si>
+  <si>
+    <t>PRooA873</t>
+  </si>
+  <si>
+    <t>xfxprtu59</t>
+  </si>
+  <si>
+    <t>vEF%c74$</t>
+  </si>
+  <si>
+    <t>NuZLzXIW</t>
+  </si>
+  <si>
+    <t>DKDA</t>
+  </si>
+  <si>
+    <t>HcVXz418</t>
+  </si>
+  <si>
+    <t>ngbotgc34</t>
+  </si>
+  <si>
+    <t>Zm!qR#37</t>
+  </si>
+  <si>
+    <t>CzZmUmYp</t>
+  </si>
+  <si>
+    <t>dEYg</t>
+  </si>
+  <si>
+    <t>WYerP818</t>
+  </si>
+  <si>
+    <t>ncvrfxz52</t>
+  </si>
+  <si>
+    <t>vE93!P#n</t>
+  </si>
+  <si>
+    <t>vInGekwK</t>
+  </si>
+  <si>
+    <t>Msba</t>
+  </si>
+  <si>
+    <t>fHLSo490</t>
+  </si>
+  <si>
+    <t>bywaody65</t>
+  </si>
+  <si>
+    <t>K9v8Sb%#</t>
+  </si>
+  <si>
+    <t>CzhoHpYz</t>
+  </si>
+  <si>
+    <t>ERMG</t>
+  </si>
+  <si>
+    <t>hHDxq668</t>
+  </si>
+  <si>
+    <t>ktnqfsx79</t>
+  </si>
+  <si>
+    <t>qvK#&amp;M35</t>
+  </si>
+  <si>
+    <t>JnMtsBdq</t>
+  </si>
+  <si>
+    <t>QNxZ</t>
+  </si>
+  <si>
+    <t>LxaQW900</t>
+  </si>
+  <si>
+    <t>vipuqtu54</t>
+  </si>
+  <si>
+    <t>FX2&amp;%dk8</t>
+  </si>
+  <si>
+    <t>nEGeXEyQ</t>
+  </si>
+  <si>
+    <t>edUh</t>
+  </si>
+  <si>
+    <t>hjdHe642</t>
+  </si>
+  <si>
+    <t>tzahjbx84</t>
+  </si>
+  <si>
+    <t>y93!fJW&amp;</t>
+  </si>
+  <si>
+    <t>LSGgfLgd</t>
+  </si>
+  <si>
+    <t>bAPy</t>
+  </si>
+  <si>
+    <t>yOtaN948</t>
+  </si>
+  <si>
+    <t>onolmzw21</t>
+  </si>
+  <si>
+    <t>BM%4!q6v</t>
+  </si>
+  <si>
+    <t>BBThmEsa</t>
+  </si>
+  <si>
+    <t>whxP</t>
+  </si>
+  <si>
+    <t>txzLL190</t>
+  </si>
+  <si>
+    <t>ullugcw11</t>
+  </si>
+  <si>
+    <t>n9gQ!6G#</t>
+  </si>
+  <si>
+    <t>AmbVoMHB</t>
+  </si>
+  <si>
+    <t>JROe</t>
+  </si>
+  <si>
+    <t>PYQWH502</t>
+  </si>
+  <si>
+    <t>ooamzrp55</t>
+  </si>
+  <si>
+    <t>czV%!3P8</t>
+  </si>
+  <si>
+    <t>tdyvLEPl</t>
+  </si>
+  <si>
+    <t>bThH</t>
+  </si>
+  <si>
+    <t>rWdZF963</t>
+  </si>
+  <si>
+    <t>cdduuot61</t>
+  </si>
+  <si>
+    <t>YX#&amp;63wx</t>
+  </si>
+  <si>
+    <t>iauVjZFe</t>
+  </si>
+  <si>
+    <t>nfwJ</t>
+  </si>
+  <si>
+    <t>NafJw390</t>
+  </si>
+  <si>
+    <t>ijtgtdh54</t>
+  </si>
+  <si>
+    <t>J&amp;#F9at8</t>
+  </si>
+  <si>
+    <t>MhlmgvaB</t>
+  </si>
+  <si>
+    <t>gebh</t>
   </si>
 </sst>
 </file>
@@ -727,10 +712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H22"/>
+      <selection activeCell="A1" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011250</v>
+        <v>231028102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -792,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011249</v>
+        <v>231028101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -818,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231011248</v>
+        <v>231028100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -844,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231011247</v>
+        <v>23102899</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -870,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231011246</v>
+        <v>23102898</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -896,7 +881,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231011245</v>
+        <v>23102897</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -922,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231011244</v>
+        <v>23102896</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -948,7 +933,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231011243</v>
+        <v>23102895</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -974,7 +959,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231011242</v>
+        <v>23102894</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -1000,7 +985,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231011241</v>
+        <v>23102893</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -1026,7 +1011,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231011240</v>
+        <v>23102892</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -1052,7 +1037,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231011239</v>
+        <v>23102891</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -1078,7 +1063,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231011238</v>
+        <v>23102890</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -1104,7 +1089,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>231011237</v>
+        <v>23102889</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
@@ -1130,7 +1115,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2">
-        <v>231011236</v>
+        <v>23102888</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
@@ -1156,7 +1141,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="2">
-        <v>231011235</v>
+        <v>23102887</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -1182,7 +1167,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2">
-        <v>231011234</v>
+        <v>23102886</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
@@ -1208,7 +1193,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2">
-        <v>231011233</v>
+        <v>23102885</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>96</v>
@@ -1234,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="2">
-        <v>231011232</v>
+        <v>23102884</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>101</v>
@@ -1260,7 +1245,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>231011231</v>
+        <v>23102883</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>106</v>
@@ -1278,32 +1263,6 @@
         <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2">
-        <v>231011230</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExamwithContent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,310 +41,325 @@
     <t>Role</t>
   </si>
   <si>
-    <t>gJHFX159</t>
-  </si>
-  <si>
-    <t>ypjqkgb89</t>
-  </si>
-  <si>
-    <t>T6M7$y!c</t>
+    <t>eqlFj212</t>
+  </si>
+  <si>
+    <t>fseapzk21</t>
+  </si>
+  <si>
+    <t>UuYa8&amp;4%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ykBdltJx</t>
-  </si>
-  <si>
-    <t>YBQv</t>
+    <t>wPmSyhxM</t>
+  </si>
+  <si>
+    <t>uVCP</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>wtrGx665</t>
-  </si>
-  <si>
-    <t>dinaezs55</t>
-  </si>
-  <si>
-    <t>fFUe$#89</t>
-  </si>
-  <si>
-    <t>PQsmvSTF</t>
-  </si>
-  <si>
-    <t>btye</t>
-  </si>
-  <si>
-    <t>MUBPT629</t>
-  </si>
-  <si>
-    <t>rdvldhz81</t>
-  </si>
-  <si>
-    <t>x7P%!8Fn</t>
-  </si>
-  <si>
-    <t>KpCIMhAX</t>
-  </si>
-  <si>
-    <t>FLuF</t>
-  </si>
-  <si>
-    <t>fkgQc243</t>
-  </si>
-  <si>
-    <t>cwaiylq38</t>
-  </si>
-  <si>
-    <t>ws9$7X!V</t>
-  </si>
-  <si>
-    <t>BOiZSmWj</t>
-  </si>
-  <si>
-    <t>JSAY</t>
-  </si>
-  <si>
-    <t>pUKZs281</t>
-  </si>
-  <si>
-    <t>tzafsvc74</t>
-  </si>
-  <si>
-    <t>tJ79#%An</t>
-  </si>
-  <si>
-    <t>JlxUMfkf</t>
-  </si>
-  <si>
-    <t>dyef</t>
-  </si>
-  <si>
-    <t>EHkpe663</t>
-  </si>
-  <si>
-    <t>mmozbwf53</t>
-  </si>
-  <si>
-    <t>N67mM!#p</t>
-  </si>
-  <si>
-    <t>PfBENuMU</t>
-  </si>
-  <si>
-    <t>RsOW</t>
-  </si>
-  <si>
-    <t>bjzYz341</t>
-  </si>
-  <si>
-    <t>kuiplhu62</t>
-  </si>
-  <si>
-    <t>rD4#H!d7</t>
-  </si>
-  <si>
-    <t>SyNmYQQE</t>
-  </si>
-  <si>
-    <t>wXKC</t>
-  </si>
-  <si>
-    <t>dltEs127</t>
-  </si>
-  <si>
-    <t>dojimlc52</t>
-  </si>
-  <si>
-    <t>f2c8&amp;$GX</t>
-  </si>
-  <si>
-    <t>ynrSLMtI</t>
-  </si>
-  <si>
-    <t>CjMm</t>
-  </si>
-  <si>
-    <t>PRooA873</t>
-  </si>
-  <si>
-    <t>xfxprtu59</t>
-  </si>
-  <si>
-    <t>vEF%c74$</t>
-  </si>
-  <si>
-    <t>NuZLzXIW</t>
-  </si>
-  <si>
-    <t>DKDA</t>
-  </si>
-  <si>
-    <t>HcVXz418</t>
-  </si>
-  <si>
-    <t>ngbotgc34</t>
-  </si>
-  <si>
-    <t>Zm!qR#37</t>
-  </si>
-  <si>
-    <t>CzZmUmYp</t>
-  </si>
-  <si>
-    <t>dEYg</t>
-  </si>
-  <si>
-    <t>WYerP818</t>
-  </si>
-  <si>
-    <t>ncvrfxz52</t>
-  </si>
-  <si>
-    <t>vE93!P#n</t>
-  </si>
-  <si>
-    <t>vInGekwK</t>
-  </si>
-  <si>
-    <t>Msba</t>
-  </si>
-  <si>
-    <t>fHLSo490</t>
-  </si>
-  <si>
-    <t>bywaody65</t>
-  </si>
-  <si>
-    <t>K9v8Sb%#</t>
-  </si>
-  <si>
-    <t>CzhoHpYz</t>
-  </si>
-  <si>
-    <t>ERMG</t>
-  </si>
-  <si>
-    <t>hHDxq668</t>
-  </si>
-  <si>
-    <t>ktnqfsx79</t>
-  </si>
-  <si>
-    <t>qvK#&amp;M35</t>
-  </si>
-  <si>
-    <t>JnMtsBdq</t>
-  </si>
-  <si>
-    <t>QNxZ</t>
-  </si>
-  <si>
-    <t>LxaQW900</t>
-  </si>
-  <si>
-    <t>vipuqtu54</t>
-  </si>
-  <si>
-    <t>FX2&amp;%dk8</t>
-  </si>
-  <si>
-    <t>nEGeXEyQ</t>
-  </si>
-  <si>
-    <t>edUh</t>
-  </si>
-  <si>
-    <t>hjdHe642</t>
-  </si>
-  <si>
-    <t>tzahjbx84</t>
-  </si>
-  <si>
-    <t>y93!fJW&amp;</t>
-  </si>
-  <si>
-    <t>LSGgfLgd</t>
-  </si>
-  <si>
-    <t>bAPy</t>
-  </si>
-  <si>
-    <t>yOtaN948</t>
-  </si>
-  <si>
-    <t>onolmzw21</t>
-  </si>
-  <si>
-    <t>BM%4!q6v</t>
-  </si>
-  <si>
-    <t>BBThmEsa</t>
-  </si>
-  <si>
-    <t>whxP</t>
-  </si>
-  <si>
-    <t>txzLL190</t>
-  </si>
-  <si>
-    <t>ullugcw11</t>
-  </si>
-  <si>
-    <t>n9gQ!6G#</t>
-  </si>
-  <si>
-    <t>AmbVoMHB</t>
-  </si>
-  <si>
-    <t>JROe</t>
-  </si>
-  <si>
-    <t>PYQWH502</t>
-  </si>
-  <si>
-    <t>ooamzrp55</t>
-  </si>
-  <si>
-    <t>czV%!3P8</t>
-  </si>
-  <si>
-    <t>tdyvLEPl</t>
-  </si>
-  <si>
-    <t>bThH</t>
-  </si>
-  <si>
-    <t>rWdZF963</t>
-  </si>
-  <si>
-    <t>cdduuot61</t>
-  </si>
-  <si>
-    <t>YX#&amp;63wx</t>
-  </si>
-  <si>
-    <t>iauVjZFe</t>
-  </si>
-  <si>
-    <t>nfwJ</t>
-  </si>
-  <si>
-    <t>NafJw390</t>
-  </si>
-  <si>
-    <t>ijtgtdh54</t>
-  </si>
-  <si>
-    <t>J&amp;#F9at8</t>
-  </si>
-  <si>
-    <t>MhlmgvaB</t>
-  </si>
-  <si>
-    <t>gebh</t>
+    <t>htHHy615</t>
+  </si>
+  <si>
+    <t>ybxfeku52</t>
+  </si>
+  <si>
+    <t>Wfh87$G%</t>
+  </si>
+  <si>
+    <t>nsfWwwup</t>
+  </si>
+  <si>
+    <t>CpvV</t>
+  </si>
+  <si>
+    <t>pIrIS777</t>
+  </si>
+  <si>
+    <t>mjwcenj38</t>
+  </si>
+  <si>
+    <t>q9%A!4Vn</t>
+  </si>
+  <si>
+    <t>lEdpqdVs</t>
+  </si>
+  <si>
+    <t>oRgT</t>
+  </si>
+  <si>
+    <t>EdxSQ535</t>
+  </si>
+  <si>
+    <t>ypzqlph50</t>
+  </si>
+  <si>
+    <t>d%R5r$6Z</t>
+  </si>
+  <si>
+    <t>rDlkuFMY</t>
+  </si>
+  <si>
+    <t>bkGq</t>
+  </si>
+  <si>
+    <t>AcRTB200</t>
+  </si>
+  <si>
+    <t>sdicoas53</t>
+  </si>
+  <si>
+    <t>Ht2$b!C7</t>
+  </si>
+  <si>
+    <t>QzvlURes</t>
+  </si>
+  <si>
+    <t>zIml</t>
+  </si>
+  <si>
+    <t>KMCco891</t>
+  </si>
+  <si>
+    <t>evwwftq75</t>
+  </si>
+  <si>
+    <t>q%U6#4bJ</t>
+  </si>
+  <si>
+    <t>jQWFDaUa</t>
+  </si>
+  <si>
+    <t>DEnd</t>
+  </si>
+  <si>
+    <t>uRkMJ460</t>
+  </si>
+  <si>
+    <t>fiqmoci37</t>
+  </si>
+  <si>
+    <t>KyQ$%s26</t>
+  </si>
+  <si>
+    <t>ZhnvgvGe</t>
+  </si>
+  <si>
+    <t>ElsQ</t>
+  </si>
+  <si>
+    <t>Znjmm752</t>
+  </si>
+  <si>
+    <t>pkuyyxr42</t>
+  </si>
+  <si>
+    <t>Z7%d9&amp;zK</t>
+  </si>
+  <si>
+    <t>jvxGgkYo</t>
+  </si>
+  <si>
+    <t>KcPi</t>
+  </si>
+  <si>
+    <t>MhgdG949</t>
+  </si>
+  <si>
+    <t>izudexd92</t>
+  </si>
+  <si>
+    <t>d&amp;k4Z2Q%</t>
+  </si>
+  <si>
+    <t>xnNZAfGb</t>
+  </si>
+  <si>
+    <t>HjyD</t>
+  </si>
+  <si>
+    <t>vehDl757</t>
+  </si>
+  <si>
+    <t>tpyocvj35</t>
+  </si>
+  <si>
+    <t>Xv$9#S5f</t>
+  </si>
+  <si>
+    <t>atHALHxV</t>
+  </si>
+  <si>
+    <t>IpXd</t>
+  </si>
+  <si>
+    <t>SUNRH392</t>
+  </si>
+  <si>
+    <t>inmrkwk81</t>
+  </si>
+  <si>
+    <t>Hc%R8$j7</t>
+  </si>
+  <si>
+    <t>XaGEesRh</t>
+  </si>
+  <si>
+    <t>Tipn</t>
+  </si>
+  <si>
+    <t>ZRvHQ813</t>
+  </si>
+  <si>
+    <t>dosxsbz41</t>
+  </si>
+  <si>
+    <t>Dg%p$36F</t>
+  </si>
+  <si>
+    <t>zmwsSLnH</t>
+  </si>
+  <si>
+    <t>PrKO</t>
+  </si>
+  <si>
+    <t>uqEjr980</t>
+  </si>
+  <si>
+    <t>brqkaky73</t>
+  </si>
+  <si>
+    <t>C5!Nte2#</t>
+  </si>
+  <si>
+    <t>zhFCQLhB</t>
+  </si>
+  <si>
+    <t>bEZa</t>
+  </si>
+  <si>
+    <t>BMXam394</t>
+  </si>
+  <si>
+    <t>wjeothp25</t>
+  </si>
+  <si>
+    <t>y%!7J6Mn</t>
+  </si>
+  <si>
+    <t>DrIIGMfc</t>
+  </si>
+  <si>
+    <t>tApo</t>
+  </si>
+  <si>
+    <t>rDQXX359</t>
+  </si>
+  <si>
+    <t>vzgbbsa87</t>
+  </si>
+  <si>
+    <t>M8$n&amp;Rr6</t>
+  </si>
+  <si>
+    <t>dcgKsoni</t>
+  </si>
+  <si>
+    <t>tvvb</t>
+  </si>
+  <si>
+    <t>PyYhz704</t>
+  </si>
+  <si>
+    <t>krmkefk23</t>
+  </si>
+  <si>
+    <t>jHy6B!4$</t>
+  </si>
+  <si>
+    <t>rcKlJwyM</t>
+  </si>
+  <si>
+    <t>xVhE</t>
+  </si>
+  <si>
+    <t>IsQBi967</t>
+  </si>
+  <si>
+    <t>yvszvum34</t>
+  </si>
+  <si>
+    <t>FP$m26!t</t>
+  </si>
+  <si>
+    <t>DASITnSL</t>
+  </si>
+  <si>
+    <t>LLAq</t>
+  </si>
+  <si>
+    <t>RxtnO472</t>
+  </si>
+  <si>
+    <t>ejhbfpp49</t>
+  </si>
+  <si>
+    <t>c#39U!Zy</t>
+  </si>
+  <si>
+    <t>wktZkccL</t>
+  </si>
+  <si>
+    <t>KyZo</t>
+  </si>
+  <si>
+    <t>PWqnF836</t>
+  </si>
+  <si>
+    <t>yubizhs94</t>
+  </si>
+  <si>
+    <t>R4m$U#3x</t>
+  </si>
+  <si>
+    <t>RSrytArI</t>
+  </si>
+  <si>
+    <t>BfdE</t>
+  </si>
+  <si>
+    <t>EeSxb760</t>
+  </si>
+  <si>
+    <t>zpoeddp33</t>
+  </si>
+  <si>
+    <t>k74r&amp;$NS</t>
+  </si>
+  <si>
+    <t>pMhzXBma</t>
+  </si>
+  <si>
+    <t>GquG</t>
+  </si>
+  <si>
+    <t>RzGPE243</t>
+  </si>
+  <si>
+    <t>wjnpywp62</t>
+  </si>
+  <si>
+    <t>d$H3Bj!9</t>
+  </si>
+  <si>
+    <t>rKbMbmON</t>
+  </si>
+  <si>
+    <t>ijWI</t>
   </si>
 </sst>
 </file>
@@ -712,10 +727,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H21"/>
+      <selection activeCell="A1" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231028102</v>
+        <v>231102295</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -777,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231028101</v>
+        <v>231102294</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -803,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231028100</v>
+        <v>231102293</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -829,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>23102899</v>
+        <v>231102292</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -855,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>23102898</v>
+        <v>231102291</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -881,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>23102897</v>
+        <v>231102290</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -907,7 +922,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>23102896</v>
+        <v>231102289</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -933,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>23102895</v>
+        <v>231102288</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -959,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>23102894</v>
+        <v>231102287</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -985,7 +1000,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>23102893</v>
+        <v>231102286</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -1011,7 +1026,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>23102892</v>
+        <v>231102285</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -1037,7 +1052,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>23102891</v>
+        <v>231102284</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -1063,7 +1078,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>23102890</v>
+        <v>231102283</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -1089,7 +1104,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>23102889</v>
+        <v>231102282</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
@@ -1115,7 +1130,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2">
-        <v>23102888</v>
+        <v>231102281</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
@@ -1141,7 +1156,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="2">
-        <v>23102887</v>
+        <v>231102280</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -1167,7 +1182,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2">
-        <v>23102886</v>
+        <v>231102279</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
@@ -1193,7 +1208,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2">
-        <v>23102885</v>
+        <v>231102278</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>96</v>
@@ -1219,7 +1234,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="2">
-        <v>23102884</v>
+        <v>231102277</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>101</v>
@@ -1245,7 +1260,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>23102883</v>
+        <v>231102276</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>106</v>
@@ -1263,6 +1278,32 @@
         <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231102275</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
